--- a/src/carrefour.fournisseur.xlsx
+++ b/src/carrefour.fournisseur.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ElisabethRibeiro\Documents\GitHub\eurofel_tools\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD596B2-C3CA-4C38-9554-DD5C2B536B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$2</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="96">
   <si>
     <t>BASSIN</t>
   </si>
@@ -34,7 +25,79 @@
     <t>IFLS</t>
   </si>
   <si>
-    <t>031551</t>
+    <t>122546</t>
+  </si>
+  <si>
+    <t>019970</t>
+  </si>
+  <si>
+    <t>011381</t>
+  </si>
+  <si>
+    <t>120230</t>
+  </si>
+  <si>
+    <t>120237</t>
+  </si>
+  <si>
+    <t>103103</t>
+  </si>
+  <si>
+    <t>121872</t>
+  </si>
+  <si>
+    <t>175799</t>
+  </si>
+  <si>
+    <t>120394</t>
+  </si>
+  <si>
+    <t>116616</t>
+  </si>
+  <si>
+    <t>120183</t>
+  </si>
+  <si>
+    <t>121954</t>
+  </si>
+  <si>
+    <t>124725</t>
+  </si>
+  <si>
+    <t>031285</t>
+  </si>
+  <si>
+    <t>556800</t>
+  </si>
+  <si>
+    <t>803977</t>
+  </si>
+  <si>
+    <t>077433</t>
+  </si>
+  <si>
+    <t>123223</t>
+  </si>
+  <si>
+    <t>116631</t>
+  </si>
+  <si>
+    <t>100304</t>
+  </si>
+  <si>
+    <t>099432</t>
+  </si>
+  <si>
+    <t>099851</t>
+  </si>
+  <si>
+    <t>136825</t>
+  </si>
+  <si>
+    <t>102097</t>
+  </si>
+  <si>
+    <t>099702</t>
   </si>
   <si>
     <t>UL</t>
@@ -43,6 +106,21 @@
     <t>C44</t>
   </si>
   <si>
+    <t>BOX</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
     <t>ENTREPOT</t>
   </si>
   <si>
@@ -52,7 +130,79 @@
     <t>PRODUIT</t>
   </si>
   <si>
-    <t>Fruit de la passion / Vrac 36 pcs - 2 kg / Cat. I / Colombie</t>
+    <t>Tomates grappe / Vrac 10 kg / Cat. EXTRA / France</t>
+  </si>
+  <si>
+    <t>Pastèque / Palox 400 kg / Cat. I / Italie</t>
+  </si>
+  <si>
+    <t>Melons / Vrac 12 pcs - 9,5 kg / 12L (800-950 g) / Cat. I / Espagne</t>
+  </si>
+  <si>
+    <t>Tomates Côtelées Noires / Vrac 3,5 kg / Cat. I / France</t>
+  </si>
+  <si>
+    <t>Tomates Marmande / Vrac 3,5 kg / Cat. I / France</t>
+  </si>
+  <si>
+    <t>Tomates Jaunes Ananas / Vrac 3,5 kg / Cat. I / France</t>
+  </si>
+  <si>
+    <t>Raisins Italia / Vrac 5 kg / Cat. I / Italie</t>
+  </si>
+  <si>
+    <t>Salade Iceberg / Vrac 10x500 g / Cat. I / Espagne</t>
+  </si>
+  <si>
+    <t>Poivrons Rouges / Vrac 5 kg / GG-A (90-110 mm) / Cat. I / Pays-Bas</t>
+  </si>
+  <si>
+    <t>Poivrons Jaunes / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Pays-Bas</t>
+  </si>
+  <si>
+    <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Pays-Bas</t>
+  </si>
+  <si>
+    <t>Concombres / Vrac 12 pcs - 6,6 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
+  </si>
+  <si>
+    <t>Prune Rouge / Vrac 5 kg / 45-50 mm / Cat. I / Espagne</t>
+  </si>
+  <si>
+    <t>Ananas Extra Sweet / Vrac 8 pcs - 12 kg / A8 (1500-1800 g) / Cat. I / Costa Rica</t>
+  </si>
+  <si>
+    <t>Champignon de Paris Blanc / Barquettes 12x200 g / Cat. I / Pologne</t>
+  </si>
+  <si>
+    <t>Courgettes / Vrac 9 kg / Cat. I / France</t>
+  </si>
+  <si>
+    <t>Poires Conférence / Vrac 4,5 kg / 75-80 mm / Cat. I / Belgique</t>
+  </si>
+  <si>
+    <t>Tomates Charnues / Vrac 7 kg / 8G (77-82 mm) / Cat. I / France</t>
+  </si>
+  <si>
+    <t>Tomates Allongées / Roma / Vrac 6 kg / G / 8 (67-82 mm) / Cat. I / France</t>
+  </si>
+  <si>
+    <t>Pêches plates Blanches / Vrac 5 kg / A (67-73 mm) / Cat. I / Espagne</t>
+  </si>
+  <si>
+    <t>Pomme Golden / 1 rang 4,5 kg / 15 (265-305 g) / Cat. I / France</t>
+  </si>
+  <si>
+    <t>Abricot / Plateau 5 kg / AA (45-49 mm) / Cat. I / Espagne</t>
+  </si>
+  <si>
+    <t>Kiwi Jaunes / Vrac 52 pcs - 5,7 kg / 33 (85-95g) / Cat. I / Nouvelle-Zélande</t>
+  </si>
+  <si>
+    <t>Pêches Blanches / Vrac 4 kg / A (67-73 mm) / Cat. I / Espagne</t>
+  </si>
+  <si>
+    <t>Pêches Jaunes / Vrac 4 kg / A26 (67-73 mm) / Cat. I / Espagne</t>
   </si>
   <si>
     <t>FOURNISSEUR</t>
@@ -76,7 +226,70 @@
     <t>PRIX</t>
   </si>
   <si>
-    <t>0,54</t>
+    <t>0,85</t>
+  </si>
+  <si>
+    <t>0,74</t>
+  </si>
+  <si>
+    <t>1,75</t>
+  </si>
+  <si>
+    <t>2,86</t>
+  </si>
+  <si>
+    <t>2,73</t>
+  </si>
+  <si>
+    <t>1,06</t>
+  </si>
+  <si>
+    <t>2,54</t>
+  </si>
+  <si>
+    <t>2,33</t>
+  </si>
+  <si>
+    <t>1,22</t>
+  </si>
+  <si>
+    <t>0,38</t>
+  </si>
+  <si>
+    <t>2,07</t>
+  </si>
+  <si>
+    <t>1,70</t>
+  </si>
+  <si>
+    <t>1,33</t>
+  </si>
+  <si>
+    <t>0,73</t>
+  </si>
+  <si>
+    <t>1,27</t>
+  </si>
+  <si>
+    <t>2,01</t>
+  </si>
+  <si>
+    <t>0,90</t>
+  </si>
+  <si>
+    <t>1,17</t>
+  </si>
+  <si>
+    <t>1,48</t>
+  </si>
+  <si>
+    <t>1,91</t>
+  </si>
+  <si>
+    <t>0,50</t>
+  </si>
+  <si>
+    <t>1,59</t>
   </si>
   <si>
     <t>QUANTITE</t>
@@ -85,14 +298,17 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>280524</t>
+    <t>220624</t>
+  </si>
+  <si>
+    <t>210624</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,21 +345,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +389,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -215,7 +423,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -250,10 +457,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,16 +632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,37 +647,37 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="L1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -481,32 +685,927 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3">
+        <v>1008</v>
+      </c>
+      <c r="L3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14">
+        <v>15</v>
+      </c>
+      <c r="L14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15">
+        <v>250</v>
+      </c>
+      <c r="L15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21">
         <v>20</v>
       </c>
+      <c r="L21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23">
+        <v>15</v>
+      </c>
+      <c r="L23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24">
+        <v>30</v>
+      </c>
+      <c r="L24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="L26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30">
+        <v>14</v>
+      </c>
+      <c r="L30" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>